--- a/QueryReport/excelTemplate/MyStaff_(1)_20200330.xlsx
+++ b/QueryReport/excelTemplate/MyStaff_(1)_20200330.xlsx
@@ -426,8 +426,9 @@
     <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
     <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
     <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
+    <x:numFmt numFmtId="240" formatCode="yyyy-mm-dd"/>
   </x:numFmts>
-  <x:fonts count="10">
+  <x:fonts count="12">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -487,6 +488,17 @@
       <x:b/>
       <x:color rgb="000000"/>
     </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -496,7 +508,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="9">
+  <x:borders count="11">
     <x:border>
       <x:left/>
       <x:right/>
@@ -566,13 +578,25 @@
       <x:top style="thin"/>
       <x:bottom style="thin"/>
     </x:border>
+    <x:border>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin"/>
+      <x:right style="thin"/>
+      <x:top style="thin"/>
+      <x:bottom style="thin"/>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="30">
+  <x:cellXfs count="38">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -609,6 +633,14 @@
     <x:xf numFmtId="240" fontId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <x:xf fontId="9" borderId="8" applyFont="1" applyBorder="1"/>
     <x:xf numFmtId="240" fontId="9" borderId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <x:xf fontId="10" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="10" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="11" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="240" fontId="11" borderId="0" applyNumberFormat="1" applyFont="1"/>
+    <x:xf fontId="10" borderId="10" applyFont="1" applyBorder="1"/>
+    <x:xf numFmtId="240" fontId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <x:xf fontId="11" borderId="10" applyFont="1" applyBorder="1"/>
+    <x:xf numFmtId="240" fontId="11" borderId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,8 +1097,8 @@
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" s="22" t="str">
-        <x:v>_DATASTART_DATAEND</x:v>
+      <x:c r="A2" s="30" t="str">
+        <x:v>_DATASTART</x:v>
       </x:c>
       <x:c r="B2" s="2" t="str">
         <x:v>Bank Number</x:v>
@@ -1081,18 +1113,861 @@
         <x:v>ERPName</x:v>
       </x:c>
     </x:row>
-    <x:row xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r="3" spans="1:5" ht="16.5">
-      <x:c r="B3" s="4" t="s">
+    <x:row r="3">
+      <x:c r="B3" s="34" t="str">
+        <x:v>004-123-123656</x:v>
+      </x:c>
+      <x:c r="C3" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="34" t="str">
+        <x:v>Chan Chi Man</x:v>
+      </x:c>
+      <x:c r="E3" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="B4" s="34" t="str">
+        <x:v>003-453-345354353</x:v>
+      </x:c>
+      <x:c r="C4" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="34" t="str">
+        <x:v>Chan Fai</x:v>
+      </x:c>
+      <x:c r="E4" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="B5" s="34" t="str">
+        <x:v>003-555-555555555</x:v>
+      </x:c>
+      <x:c r="C5" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="34" t="str">
+        <x:v>Chan guan guan</x:v>
+      </x:c>
+      <x:c r="E5" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="B6" s="34" t="str">
+        <x:v>024-234-23432432</x:v>
+      </x:c>
+      <x:c r="C6" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="34" t="str">
+        <x:v>Chan Hang</x:v>
+      </x:c>
+      <x:c r="E6" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="B7" s="34" t="str">
+        <x:v>027-243-234243324</x:v>
+      </x:c>
+      <x:c r="C7" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="34" t="str">
+        <x:v>Chan Ka</x:v>
+      </x:c>
+      <x:c r="E7" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="B8" s="34" t="str">
+        <x:v>004-123-4567890</x:v>
+      </x:c>
+      <x:c r="C8" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="34" t="str">
+        <x:v>Chan Ka Man</x:v>
+      </x:c>
+      <x:c r="E8" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="B9" s="34" t="str">
+        <x:v>003-456-123456</x:v>
+      </x:c>
+      <x:c r="C9" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="34" t="str">
+        <x:v>Chan King</x:v>
+      </x:c>
+      <x:c r="E9" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="B10" s="34" t="str">
+        <x:v>004-245-235125</x:v>
+      </x:c>
+      <x:c r="C10" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="34" t="str">
+        <x:v>Chan Kit</x:v>
+      </x:c>
+      <x:c r="E10" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="B11" s="34" t="str">
+        <x:v>003-657-7657657</x:v>
+      </x:c>
+      <x:c r="C11" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="34" t="str">
+        <x:v>Chan Li Chun</x:v>
+      </x:c>
+      <x:c r="E11" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="B12" s="34" t="str">
+        <x:v>004-000-21215454</x:v>
+      </x:c>
+      <x:c r="C12" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="34" t="str">
+        <x:v>Chan Man Hung</x:v>
+      </x:c>
+      <x:c r="E12" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="B13" s="34" t="str">
+        <x:v>035-112-15468777</x:v>
+      </x:c>
+      <x:c r="C13" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="34" t="str">
+        <x:v>Chan Man Man</x:v>
+      </x:c>
+      <x:c r="E13" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="B14" s="34" t="str">
+        <x:v>004-001-00000001</x:v>
+      </x:c>
+      <x:c r="C14" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D14" s="34" t="str">
+        <x:v>Chan Mei Mei</x:v>
+      </x:c>
+      <x:c r="E14" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="B15" s="34" t="str">
+        <x:v>017-345-354353453</x:v>
+      </x:c>
+      <x:c r="C15" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="34" t="str">
+        <x:v>Chan Ming</x:v>
+      </x:c>
+      <x:c r="E15" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="B16" s="34" t="str">
+        <x:v>011-234-234324324</x:v>
+      </x:c>
+      <x:c r="C16" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="34" t="str">
+        <x:v>Chan Shun</x:v>
+      </x:c>
+      <x:c r="E16" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="B17" s="34" t="str">
+        <x:v>004-321-654987</x:v>
+      </x:c>
+      <x:c r="C17" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="34" t="str">
+        <x:v>Chan Siu Fong</x:v>
+      </x:c>
+      <x:c r="E17" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="B18" s="34" t="str">
+        <x:v>028-000-000000000</x:v>
+      </x:c>
+      <x:c r="C18" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="34" t="str">
+        <x:v>Chan Siu Li</x:v>
+      </x:c>
+      <x:c r="E18" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="B19" s="34" t="str">
+        <x:v>018-124-234246</x:v>
+      </x:c>
+      <x:c r="C19" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="34" t="str">
+        <x:v>Chan Tai man 10</x:v>
+      </x:c>
+      <x:c r="E19" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="B20" s="34" t="str">
+        <x:v>004-213-131341</x:v>
+      </x:c>
+      <x:c r="C20" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="34" t="str">
+        <x:v>Chan Tai Man, Peter</x:v>
+      </x:c>
+      <x:c r="E20" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="B21" s="34" t="str">
+        <x:v>004-355-647588</x:v>
+      </x:c>
+      <x:c r="C21" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="34" t="str">
+        <x:v>Cheung Li Chun</x:v>
+      </x:c>
+      <x:c r="E21" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="B22" s="34" t="str">
+        <x:v>003-321-1234567</x:v>
+      </x:c>
+      <x:c r="C22" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="34" t="str">
+        <x:v>Choi Wendy</x:v>
+      </x:c>
+      <x:c r="E22" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="B23" s="34" t="str">
+        <x:v>019-123-123145</x:v>
+      </x:c>
+      <x:c r="C23" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D23" s="34" t="str">
+        <x:v>demo 191028</x:v>
+      </x:c>
+      <x:c r="E23" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="B24" s="34" t="str">
+        <x:v>003-123-234234</x:v>
+      </x:c>
+      <x:c r="C24" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="34" t="str">
+        <x:v>DWS 190808</x:v>
+      </x:c>
+      <x:c r="E24" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="B25" s="34" t="str">
+        <x:v>018-123-324245</x:v>
+      </x:c>
+      <x:c r="C25" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D25" s="34" t="str">
+        <x:v>DWS 191108</x:v>
+      </x:c>
+      <x:c r="E25" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="B26" s="34" t="str">
+        <x:v>004-212-123114</x:v>
+      </x:c>
+      <x:c r="C26" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="34" t="str">
+        <x:v>Ho Mei Lai, Mary</x:v>
+      </x:c>
+      <x:c r="E26" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="B27" s="34" t="str">
+        <x:v>003-432-6547568</x:v>
+      </x:c>
+      <x:c r="C27" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D27" s="34" t="str">
+        <x:v>LAI Chi Man</x:v>
+      </x:c>
+      <x:c r="E27" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="B28" s="34" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C28" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="34" t="str">
+        <x:v>LAM Lai Wo</x:v>
+      </x:c>
+      <x:c r="E28" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="B29" s="34" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C29" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D29" s="34" t="str">
+        <x:v>Lau Kin Fai</x:v>
+      </x:c>
+      <x:c r="E29" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="B30" s="34" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C30" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D30" s="34" t="str">
+        <x:v>LAU LEI CHEONG</x:v>
+      </x:c>
+      <x:c r="E30" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="B31" s="34" t="str">
+        <x:v>003-568-8799</x:v>
+      </x:c>
+      <x:c r="C31" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D31" s="34" t="str">
+        <x:v>Lau Li Chun</x:v>
+      </x:c>
+      <x:c r="E31" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="B32" s="34" t="str">
+        <x:v>009-000-000000000</x:v>
+      </x:c>
+      <x:c r="C32" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D32" s="34" t="str">
+        <x:v>Lau Mei Lan</x:v>
+      </x:c>
+      <x:c r="E32" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="B33" s="34" t="str">
+        <x:v>004-234-234234234</x:v>
+      </x:c>
+      <x:c r="C33" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D33" s="34" t="str">
+        <x:v>Lau Wah</x:v>
+      </x:c>
+      <x:c r="E33" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="B34" s="34" t="str">
+        <x:v>004-124-223413</x:v>
+      </x:c>
+      <x:c r="C34" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D34" s="34" t="str">
+        <x:v>Lee Kit</x:v>
+      </x:c>
+      <x:c r="E34" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="B35" s="34" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C35" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="34" t="str">
+        <x:v>Lee Siu</x:v>
+      </x:c>
+      <x:c r="E35" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="B36" s="34" t="str">
+        <x:v>003-234-23432432</x:v>
+      </x:c>
+      <x:c r="C36" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="34" t="str">
+        <x:v>Lee Tai Man</x:v>
+      </x:c>
+      <x:c r="E36" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="B37" s="34" t="str">
+        <x:v>003-324-2343244</x:v>
+      </x:c>
+      <x:c r="C37" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D37" s="34" t="str">
+        <x:v>Leung Mai Mai</x:v>
+      </x:c>
+      <x:c r="E37" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="B38" s="34" t="str">
+        <x:v>004-55-67878</x:v>
+      </x:c>
+      <x:c r="C38" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D38" s="34" t="str">
+        <x:v>Li Yim Fong2</x:v>
+      </x:c>
+      <x:c r="E38" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="B39" s="34" t="str">
+        <x:v>004-01-001</x:v>
+      </x:c>
+      <x:c r="C39" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D39" s="34" t="str">
+        <x:v>linson liang</x:v>
+      </x:c>
+      <x:c r="E39" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="B40" s="34" t="str">
+        <x:v>012-123-123123</x:v>
+      </x:c>
+      <x:c r="C40" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D40" s="34" t="str">
+        <x:v>Sheung Foon Lok</x:v>
+      </x:c>
+      <x:c r="E40" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="B41" s="34" t="str">
+        <x:v>004-123-2364578</x:v>
+      </x:c>
+      <x:c r="C41" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D41" s="34" t="str">
+        <x:v>Staff A</x:v>
+      </x:c>
+      <x:c r="E41" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="B42" s="34" t="str">
+        <x:v>004-019-031013</x:v>
+      </x:c>
+      <x:c r="C42" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D42" s="34" t="str">
+        <x:v>Staff AA</x:v>
+      </x:c>
+      <x:c r="E42" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="B43" s="34" t="str">
+        <x:v>004-019-031801</x:v>
+      </x:c>
+      <x:c r="C43" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D43" s="34" t="str">
+        <x:v>Staff B</x:v>
+      </x:c>
+      <x:c r="E43" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="B44" s="34" t="str">
+        <x:v>004-019-031015</x:v>
+      </x:c>
+      <x:c r="C44" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D44" s="34" t="str">
+        <x:v>Staff BB</x:v>
+      </x:c>
+      <x:c r="E44" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="B45" s="34" t="str">
+        <x:v>004-019-1903108</x:v>
+      </x:c>
+      <x:c r="C45" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D45" s="34" t="str">
+        <x:v>Staff CA</x:v>
+      </x:c>
+      <x:c r="E45" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="B46" s="34" t="str">
+        <x:v>004-019-031004</x:v>
+      </x:c>
+      <x:c r="C46" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D46" s="34" t="str">
+        <x:v>Staff D</x:v>
+      </x:c>
+      <x:c r="E46" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="B47" s="34" t="str">
+        <x:v>004-019-031005</x:v>
+      </x:c>
+      <x:c r="C47" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D47" s="34" t="str">
+        <x:v>Staff E</x:v>
+      </x:c>
+      <x:c r="E47" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="B48" s="34" t="str">
+        <x:v>004-019-031006</x:v>
+      </x:c>
+      <x:c r="C48" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D48" s="34" t="str">
+        <x:v>Staff F</x:v>
+      </x:c>
+      <x:c r="E48" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="B49" s="34" t="str">
+        <x:v>004-019-031010</x:v>
+      </x:c>
+      <x:c r="C49" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D49" s="34" t="str">
+        <x:v>Staff G</x:v>
+      </x:c>
+      <x:c r="E49" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="B50" s="34" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C50" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D50" s="34" t="str">
+        <x:v>Staff M</x:v>
+      </x:c>
+      <x:c r="E50" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="B51" s="34" t="str">
+        <x:v>004-019-031002</x:v>
+      </x:c>
+      <x:c r="C51" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D51" s="34" t="str">
+        <x:v>Staff Y</x:v>
+      </x:c>
+      <x:c r="E51" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="B52" s="34" t="str">
+        <x:v>030-112-123466</x:v>
+      </x:c>
+      <x:c r="C52" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D52" s="34" t="str">
+        <x:v>Test One</x:v>
+      </x:c>
+      <x:c r="E52" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="B53" s="34" t="str">
+        <x:v>003-757-567675675</x:v>
+      </x:c>
+      <x:c r="C53" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D53" s="34" t="str">
+        <x:v>Wong Chi Man</x:v>
+      </x:c>
+      <x:c r="E53" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="B54" s="34" t="str">
+        <x:v>004-234-234234</x:v>
+      </x:c>
+      <x:c r="C54" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D54" s="34" t="str">
+        <x:v>Wong Chung</x:v>
+      </x:c>
+      <x:c r="E54" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="B55" s="34" t="str">
+        <x:v>004-111-2223345</x:v>
+      </x:c>
+      <x:c r="C55" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D55" s="34" t="str">
+        <x:v>WONG Ka Wai</x:v>
+      </x:c>
+      <x:c r="E55" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="B56" s="34" t="str">
+        <x:v>004-741-987654</x:v>
+      </x:c>
+      <x:c r="C56" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D56" s="34" t="str">
+        <x:v>Wong Kam Tim</x:v>
+      </x:c>
+      <x:c r="E56" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="B57" s="34" t="str">
+        <x:v>003-456-5646788</x:v>
+      </x:c>
+      <x:c r="C57" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D57" s="34" t="str">
+        <x:v>Wong Kit</x:v>
+      </x:c>
+      <x:c r="E57" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="B58" s="34" t="str">
+        <x:v>004-458-45612375</x:v>
+      </x:c>
+      <x:c r="C58" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D58" s="34" t="str">
+        <x:v>Wong Li Chun</x:v>
+      </x:c>
+      <x:c r="E58" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="B59" s="34" t="str">
+        <x:v>004-334-345678</x:v>
+      </x:c>
+      <x:c r="C59" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D59" s="34" t="str">
+        <x:v>Wong Siu Ming, John</x:v>
+      </x:c>
+      <x:c r="E59" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="B60" s="34" t="str">
+        <x:v>012-223-2142142</x:v>
+      </x:c>
+      <x:c r="C60" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D60" s="34" t="str">
+        <x:v>Wong Tai Man</x:v>
+      </x:c>
+      <x:c r="E60" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="B61" s="34" t="str">
+        <x:v>025-543-879576</x:v>
+      </x:c>
+      <x:c r="C61" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="34" t="str">
+        <x:v>WOO Tsz Ching</x:v>
+      </x:c>
+      <x:c r="E61" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" s="30" t="str">
+        <x:v>_DATAEND</x:v>
+      </x:c>
+      <x:c r="B62" s="34" t="str">
+        <x:v>014-646-876098</x:v>
+      </x:c>
+      <x:c r="C62" s="34" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D62" s="34" t="str">
+        <x:v>Yeung Chau Ha</x:v>
+      </x:c>
+      <x:c r="E62" s="34" t="str">
+        <x:v>Epicor</x:v>
+      </x:c>
+    </x:row>
+    <x:row xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r="63" spans="1:5" ht="16.5">
+      <x:c r="B63" s="4" t="s">
         <x:v>125</x:v>
       </x:c>
     </x:row>
-    <x:row xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r="4" spans="1:5" ht="16.5">
-      <x:c r="B4" s="4" t="s">
+    <x:row xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r="64" spans="1:5" ht="16.5">
+      <x:c r="B64" s="4" t="s">
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r="5" spans="2:2" ht="16.5">
-      <x:c r="B5" s="4" t="s">
+    <x:row xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r="65" spans="2:2" ht="16.5">
+      <x:c r="B65" s="4" t="s">
         <x:v>127</x:v>
       </x:c>
     </x:row>
